--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>AML Pipeline-46</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-46</t>
+    <t>RBL Pipeline-45</t>
+  </si>
+  <si>
+    <t>AML Pipeline-45</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,19 +1183,19 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-45</t>
-  </si>
-  <si>
-    <t>AML Pipeline-45</t>
+    <t>RBL Pipeline-44</t>
+  </si>
+  <si>
+    <t>AML Pipeline-44</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-44</t>
-  </si>
-  <si>
-    <t>AML Pipeline-44</t>
+    <t>AML Pipeline-43</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-43</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,19 +1183,19 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>AML Pipeline-43</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-43</t>
+    <t>AML Pipeline-42</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-42</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>AML Pipeline-42</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-42</t>
+    <t>AML Pipeline-41</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-41</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>AML Pipeline-41</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-41</t>
+    <t>RBL Pipeline-38</t>
+  </si>
+  <si>
+    <t>AML Pipeline-38</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:AE81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,19 +1183,19 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-38</t>
-  </si>
-  <si>
-    <t>AML Pipeline-38</t>
+    <t>RBL Pipeline</t>
+  </si>
+  <si>
+    <t>AML Pipeline</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
